--- a/data/trans_camb/P14B23_2016_2023-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B23_2016_2023-Edad-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2505512489531068</v>
+        <v>-0.2278543869658743</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3100917509015267</v>
+        <v>0.3016976328735652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4950817657697758</v>
+        <v>0.500958967123337</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.814234219594348</v>
+        <v>4.909995929517539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.843241096973209</v>
+        <v>5.115762254180654</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.797613235368138</v>
+        <v>3.825161615068703</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.05025669040529368</v>
+        <v>-0.07932751741072061</v>
       </c>
     </row>
     <row r="9">
@@ -646,9 +646,7 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
-      <c r="E9" s="6" t="n">
-        <v>22.45320779067249</v>
-      </c>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -668,7 +666,7 @@
         <v>0.8760363993478644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7100898273517501</v>
+        <v>0.7100898273517503</v>
       </c>
     </row>
     <row r="11">
@@ -679,13 +677,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2459982295691249</v>
+        <v>-0.3501902263894005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2339161549231009</v>
+        <v>-0.2976033211527671</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1247433345576387</v>
+        <v>-0.1296046527477471</v>
       </c>
     </row>
     <row r="12">
@@ -696,13 +694,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.054320113900504</v>
+        <v>1.915927705737246</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.639965836756295</v>
+        <v>2.576876241026582</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.786671204142559</v>
+        <v>1.674408851814938</v>
       </c>
     </row>
     <row r="13">
@@ -731,10 +729,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>-0.6407399792461979</v>
+        <v>-0.8148636852569123</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3458649102116944</v>
+        <v>-0.352506179942695</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +745,7 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>8.873467943242723</v>
+        <v>7.92053751851351</v>
       </c>
     </row>
     <row r="16">
@@ -765,7 +763,7 @@
         <v>2.242027638547269</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.766932648714136</v>
+        <v>1.766932648714137</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.008454382147458</v>
@@ -779,13 +777,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6731028254242177</v>
+        <v>0.6570250206889111</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.169914466276905</v>
+        <v>-0.06760931089056219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8284724861279039</v>
+        <v>0.8106514789104649</v>
       </c>
     </row>
     <row r="18">
@@ -796,13 +794,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.472014699514524</v>
+        <v>4.272733689763365</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.490763276723113</v>
+        <v>3.466793741160722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.351088299129032</v>
+        <v>3.253592033494336</v>
       </c>
     </row>
     <row r="19">
@@ -816,7 +814,7 @@
         <v>2.383201008519855</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.8043294583165733</v>
+        <v>0.8043294583165737</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>1.283250213036715</v>
@@ -830,13 +828,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1863757577830748</v>
+        <v>0.2687194431955987</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01354255142975601</v>
+        <v>-0.08154644386393463</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3152986950329871</v>
+        <v>0.3453105968701378</v>
       </c>
     </row>
     <row r="21">
@@ -847,13 +845,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>10.43566052875632</v>
+        <v>9.384703699590832</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.394172699131645</v>
+        <v>2.421137960367247</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.017935503190758</v>
+        <v>2.816822717583556</v>
       </c>
     </row>
     <row r="22">
@@ -868,10 +866,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>2.755614891741752</v>
+        <v>2.755614891741751</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.287605084964746</v>
+        <v>1.287605084964749</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>2.039094295212807</v>
@@ -885,13 +883,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.036216741110414</v>
+        <v>0.8068934463995752</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.283748738242871</v>
+        <v>-1.256974193051587</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4799882062536123</v>
+        <v>0.5637384466685813</v>
       </c>
     </row>
     <row r="24">
@@ -902,13 +900,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.979825549576501</v>
+        <v>4.727791816015869</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.387581744727555</v>
+        <v>3.517530360125892</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.575167912784526</v>
+        <v>3.460063314105817</v>
       </c>
     </row>
     <row r="25">
@@ -922,10 +920,10 @@
         <v>1.561272413940882</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.2572866416881647</v>
+        <v>0.2572866416881652</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6017591846997838</v>
+        <v>0.6017591846997841</v>
       </c>
     </row>
     <row r="26">
@@ -936,13 +934,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2642511324831017</v>
+        <v>0.2512649582329946</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1904833501162186</v>
+        <v>-0.2018577971501485</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1000462500322095</v>
+        <v>0.1331274364238373</v>
       </c>
     </row>
     <row r="27">
@@ -953,13 +951,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4.069485248702865</v>
+        <v>4.056559486279435</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9254546158949897</v>
+        <v>0.9685464024711425</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.349446340542805</v>
+        <v>1.322545554795395</v>
       </c>
     </row>
     <row r="28">
@@ -991,13 +989,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.5826532435335484</v>
+        <v>-0.7208757257579962</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.813066081632976</v>
+        <v>-2.474182642105893</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9082479780504807</v>
+        <v>-0.8166030718580037</v>
       </c>
     </row>
     <row r="30">
@@ -1008,13 +1006,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.977730241628662</v>
+        <v>3.903952133974848</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.64615561265377</v>
+        <v>4.214064909967592</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.12208399880694</v>
+        <v>3.363529920642217</v>
       </c>
     </row>
     <row r="31">
@@ -1042,13 +1040,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1589464808836241</v>
+        <v>-0.1992290816400138</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2490995859305854</v>
+        <v>-0.2294711496478147</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1293207030086414</v>
+        <v>-0.1282054230133111</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1057,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.423402424613246</v>
+        <v>2.283765909237613</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5339982422622752</v>
+        <v>0.6261044686819131</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.65069478600918</v>
+        <v>0.7225988294133989</v>
       </c>
     </row>
     <row r="34">
@@ -1080,13 +1078,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>2.176947868889446</v>
+        <v>2.176947868889445</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>1.101252298059406</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.540284395148223</v>
+        <v>1.540284395148224</v>
       </c>
     </row>
     <row r="35">
@@ -1097,13 +1095,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.8987429534857027</v>
+        <v>0.7541556140099281</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.295800100409403</v>
+        <v>-2.276954880669366</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.5304267554571032</v>
+        <v>-0.6908674408609961</v>
       </c>
     </row>
     <row r="36">
@@ -1114,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.862202233722171</v>
+        <v>3.845330473672186</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.071979421140213</v>
+        <v>4.155808598453977</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.825026276455642</v>
+        <v>3.287525172965623</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1129,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>3.807482338585304</v>
+        <v>3.807482338585302</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>0.1480249214678214</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.3654169941637796</v>
+        <v>0.3654169941637799</v>
       </c>
     </row>
     <row r="38">
@@ -1148,13 +1146,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.235941992332986</v>
+        <v>0.06793831559155362</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2459714386393379</v>
+        <v>-0.2344544432407311</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.09464291408846935</v>
+        <v>-0.1363277488226995</v>
       </c>
     </row>
     <row r="39">
@@ -1166,10 +1164,10 @@
       </c>
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="n">
-        <v>0.7535514765089599</v>
+        <v>0.7775954560266454</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.283610232742065</v>
+        <v>1.026392934377682</v>
       </c>
     </row>
     <row r="40">
@@ -1201,13 +1199,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.689076231937979</v>
+        <v>-1.786435166246638</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.41220236684755</v>
+        <v>-3.227440149101822</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-1.705576422513695</v>
+        <v>-1.724924856663568</v>
       </c>
     </row>
     <row r="42">
@@ -1218,13 +1216,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.17141532777894</v>
+        <v>3.994344182979735</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.010861732790053</v>
+        <v>4.17215451867671</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.223842563100464</v>
+        <v>3.380221486520613</v>
       </c>
     </row>
     <row r="43">
@@ -1252,13 +1250,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3773265151129215</v>
+        <v>-0.4030455730505565</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3145194161236658</v>
+        <v>-0.29670938552846</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2251561617679642</v>
+        <v>-0.2191354449245888</v>
       </c>
     </row>
     <row r="45">
@@ -1269,13 +1267,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.915786708857866</v>
+        <v>1.952032426650279</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7401893152442619</v>
+        <v>0.7517938548554731</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6916692279697495</v>
+        <v>0.7504418672176536</v>
       </c>
     </row>
     <row r="46">
@@ -1293,7 +1291,7 @@
         <v>1.963142990799373</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>1.573588621426604</v>
+        <v>1.573588621426605</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>1.772527167003445</v>
@@ -1307,13 +1305,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.190951588174656</v>
+        <v>1.228129928113821</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.6001555088381689</v>
+        <v>0.5740749148724088</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.119041710876134</v>
+        <v>1.21355673115653</v>
       </c>
     </row>
     <row r="48">
@@ -1324,13 +1322,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.706745787508257</v>
+        <v>2.716385812342118</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.573428124883754</v>
+        <v>2.552314103422611</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.40045395399983</v>
+        <v>2.385338612565823</v>
       </c>
     </row>
     <row r="49">
@@ -1344,7 +1342,7 @@
         <v>1.432850874760139</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.3598343901705934</v>
+        <v>0.3598343901705935</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.6103982339853368</v>
@@ -1358,13 +1356,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.7321300313691873</v>
+        <v>0.7203401844676323</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.120265249336391</v>
+        <v>0.1149152907838642</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3365504929652709</v>
+        <v>0.3642764572227427</v>
       </c>
     </row>
     <row r="51">
@@ -1375,13 +1373,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>2.609436315962792</v>
+        <v>2.563287552707104</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6837749070919151</v>
+        <v>0.6509220197584513</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9136891810451411</v>
+        <v>0.9099461187934732</v>
       </c>
     </row>
     <row r="52">
